--- a/report/No11_料金情報TOP画面表示テスト結果.xlsx
+++ b/report/No11_料金情報TOP画面表示テスト結果.xlsx
@@ -3,20 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20410"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE681E5B-DEF2-4463-AE1A-DBAF94CD5A97}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E6BE0BE-BF77-411C-866A-6767EB3B407F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="前提" sheetId="2" r:id="rId1"/>
     <sheet name="ケース1" sheetId="3" r:id="rId2"/>
+    <sheet name="ケース2" sheetId="4" r:id="rId3"/>
+    <sheet name="ケース3" sheetId="5" r:id="rId4"/>
+    <sheet name="ケース4" sheetId="6" r:id="rId5"/>
+    <sheet name="ケース5" sheetId="7" r:id="rId6"/>
+    <sheet name="ケース6" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
   <si>
     <t>料金情報作成</t>
     <rPh sb="0" eb="6">
@@ -56,6 +61,90 @@
   </si>
   <si>
     <t>1-4.来月請求予定の料金プランのテーブルが表示されていること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.料金情報を削除してTOP画面に遷移</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2-1.今月請求予定の料金プランの件数が0件になっていること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2-2.今月請求予定の料金プランのテーブルにエラーメッセージが表示されていること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2-3.来月請求予定の料金プランの件数が0件になっていること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2-4.来月請求予定の料金プランのテーブルにエラーメッセージが表示されていること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.今月請求予定にのみ該当する料金プランを追加し、TOP画面に遷移</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3-1.今月請求予定の料金プラン件数のみ１件になっていること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3-2.今月請求予定のテーブルにのみ料金プランが表示されていること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4.来月請求予定にのみ該当する料金プランを追加し、TOP画面に遷移</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4-1.来月請求予定の料金プラン件数のみ１件になっていること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4-2.来月請求予定のテーブルにのみ料金プランが表示されていること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5.今月・来月の請求予定どちらにも当てはまる料金プランを追加し、TOP画面に遷移</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5-1.今月請求予定の料金プランの件数１件になっていること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5-2.今月請求予定の料金プランのテーブルが表示されていること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5-3.来月請求予定の料金プランの件数が表示されていること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5-4.来月請求予定の料金プランのテーブルが表示されていること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6.今月・来月の請求予定どちらにも当てはまらない料金プランを追加し、TOP画面に遷移</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6-1.今月請求予定の料金プランの件数が0件になっていること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6-2.今月請求予定の料金プランのテーブルにエラーメッセージが表示されていること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6-3.来月請求予定の料金プランの件数が0件になっていること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6-4.来月請求予定の料金プランのテーブルにエラーメッセージが表示されていること</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -253,6 +342,603 @@
         <a:xfrm>
           <a:off x="1123950" y="5838825"/>
           <a:ext cx="11784070" cy="8878539"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>458891</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>86455</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A4B8124-DB94-466C-8A69-3BF24D93E90C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1114425" y="1371600"/>
+          <a:ext cx="12117491" cy="5229955"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>125470</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>479</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C295044B-5867-49FA-AACC-4D2B2112480C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1114425" y="6858000"/>
+          <a:ext cx="11784070" cy="3429479"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>115943</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>86263</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1AA1C9A-0882-4D97-A5AA-2F8F3ACEC12B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1114425" y="10629900"/>
+          <a:ext cx="11774543" cy="3858163"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>87364</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>143637</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{281821AC-835F-47D8-9B27-53B73B9F7296}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1114425" y="14916150"/>
+          <a:ext cx="11745964" cy="5458587"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>96891</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>105484</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AB5B01A-7BC9-4635-B57C-5016045C395A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1114425" y="1028700"/>
+          <a:ext cx="11755491" cy="5077534"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>115943</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>134110</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E54750D0-E687-4829-ACD9-CB2185117CB9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1114425" y="6515100"/>
+          <a:ext cx="11774543" cy="5449060"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>58785</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>115034</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1BBF002-BFAE-49F0-9652-45A29F4FE281}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1114425" y="1028700"/>
+          <a:ext cx="11717385" cy="5258534"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>125470</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>48373</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91ED237C-80EB-43B9-B529-588AD7C2E076}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1114425" y="6686550"/>
+          <a:ext cx="11784070" cy="5363323"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>134996</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>134110</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA1B19A5-1049-4FD0-80F6-637FF69B66F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1114425" y="1371600"/>
+          <a:ext cx="11793596" cy="5449060"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>106417</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>86479</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3A22E74-1571-4019-A08F-F5D2FCDB79D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1114425" y="7200900"/>
+          <a:ext cx="11765017" cy="5401429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>163575</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>10268</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F56A875-E166-4F55-AC38-6533A0AB5401}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1114425" y="1371600"/>
+          <a:ext cx="11822175" cy="5325218"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>77838</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>29297</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE9355B5-6103-4234-A49C-1D80F38EC57F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1114425" y="7200900"/>
+          <a:ext cx="11736438" cy="5172797"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>106417</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>86503</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C69DCC7A-3AAC-42F7-94DE-AC23F4420296}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1114425" y="12687300"/>
+          <a:ext cx="11765017" cy="5572903"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -617,7 +1303,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -669,19 +1355,280 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D77AB1A-A3E9-4482-9133-27B1F14EF902}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="14.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="1">
+        <v>45439</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D7EBFB2-E8D0-4751-B407-CD9B452C08A0}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="14.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="1">
+        <v>45439</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70F619B5-1FB4-4607-8868-D6B618574552}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="14.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="1">
+        <v>45439</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2594D12-5696-4E3C-A10B-21DA6411551E}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="14.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="1">
+        <v>45439</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAFC67F0-15C0-4C4E-8F75-0C7DA4CD5B3D}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B75" sqref="B75"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="14.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="1">
+        <v>45439</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -843,18 +1790,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25A96F8A-B775-40FD-BBE8-4BBDAB58FCAE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8048152-0CA9-47E5-A6CC-6D3980A2E781}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25A96F8A-B775-40FD-BBE8-4BBDAB58FCAE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
